--- a/DATA_goal/Junction_Flooding_140.xlsx
+++ b/DATA_goal/Junction_Flooding_140.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41572.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>94.45</v>
+        <v>9.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41572.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.53</v>
+        <v>1.95</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.66</v>
+        <v>2.57</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>100.25</v>
+        <v>10.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.76</v>
+        <v>1.98</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.15</v>
+        <v>0.61</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.65</v>
+        <v>2.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41572.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>9.98</v>
-      </c>
       <c r="I4" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.78</v>
+        <v>1.68</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41572.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.46</v>
-      </c>
       <c r="M5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.45</v>
+        <v>0.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41572.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>19.8</v>
+        <v>1.98</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6.85</v>
+        <v>0.68</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>86.7</v>
+        <v>8.67</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.1</v>
+        <v>0.61</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41572.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AB7" s="4" t="n">
         <v>0.82</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>17.48</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>165.67</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
       <c r="AC7" s="4" t="n">
-        <v>9.65</v>
+        <v>0.97</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>37.63</v>
+        <v>3.76</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41572.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>38.23</v>
+        <v>3.82</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>31.27</v>
+        <v>3.13</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>53</v>
+        <v>5.3</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>21.21</v>
+        <v>2.12</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>202.27</v>
+        <v>20.23</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>38.47</v>
+        <v>3.85</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>25.89</v>
+        <v>2.59</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>26.3</v>
+        <v>2.63</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>48.25</v>
+        <v>4.82</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41572.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AH9" s="4" t="n">
         <v>0.39</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>44.35</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>17.48</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>3.91</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41572.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O10" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>3.91</v>
-      </c>
       <c r="P10" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>52.27</v>
+        <v>5.23</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>14.69</v>
+        <v>1.47</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_140.xlsx
+++ b/DATA_goal/Junction_Flooding_140.xlsx
@@ -444,11 +444,11 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
@@ -456,16 +456,16 @@
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
@@ -759,103 +759,103 @@
         <v>44821.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.19</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.77</v>
+        <v>37.73</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44821.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.19</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.13</v>
+        <v>31.32</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.8</v>
+        <v>38.03</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.05</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.6</v>
+        <v>16.05</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.4</v>
+        <v>164</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.09</v>
+        <v>30.9</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.19</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.95</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.65</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.94</v>
+        <v>19.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.76</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.49</v>
+        <v>34.88</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.14</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44821.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2</v>
+        <v>19.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.44</v>
+        <v>34.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" s="4" t="n">
+      <c r="T5" s="4" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>3.18</v>
+        <v>31.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_140.xlsx
+++ b/DATA_goal/Junction_Flooding_140.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,103 +759,103 @@
         <v>44821.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.64</v>
+        <v>2.641</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>8.294</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.13</v>
+        <v>7.133</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.38</v>
+        <v>2.383</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.84</v>
+        <v>6.836</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.19</v>
+        <v>4.193</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.97</v>
+        <v>1.971</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.32</v>
+        <v>3.316</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.63</v>
+        <v>3.632</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.94</v>
+        <v>3.939</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.788</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.65</v>
+        <v>2.654</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.04</v>
+        <v>4.045</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.18</v>
+        <v>2.177</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>37.73</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.28</v>
+        <v>7.279</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.44</v>
+        <v>2.438</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.24</v>
+        <v>5.237</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.54</v>
+        <v>2.542</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.46</v>
+        <v>3.455</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.27</v>
+        <v>2.271</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.71</v>
+        <v>2.707</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.64</v>
+        <v>2.641</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.42</v>
+        <v>4.418</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.43</v>
+        <v>6.435</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.842</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.08</v>
+        <v>3.076</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44821.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.19</v>
+        <v>14.192</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.66</v>
+        <v>10.657</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.391</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.32</v>
+        <v>31.321</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.07</v>
+        <v>26.074</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.92</v>
+        <v>10.915</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.03</v>
+        <v>38.034</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.18</v>
+        <v>17.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.81</v>
+        <v>7.811</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.79</v>
+        <v>11.788</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.74</v>
+        <v>12.736</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.63</v>
+        <v>13.628</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.13</v>
+        <v>4.126</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.05</v>
+        <v>11.048</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.05</v>
+        <v>16.049</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.147</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164</v>
+        <v>164.004</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.9</v>
+        <v>30.895</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.19</v>
+        <v>10.188</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.19</v>
+        <v>21.192</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.95</v>
+        <v>10.951</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.65</v>
+        <v>1.652</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.4</v>
+        <v>19.402</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.115</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.371</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>9.619</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>13.76</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.88</v>
+        <v>34.879</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>6.14</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.77</v>
+        <v>12.769</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44821.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.07</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.83</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.14</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_140.xlsx
+++ b/DATA_goal/Junction_Flooding_140.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,70 +967,70 @@
         <v>44821.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.89</v>
+        <v>10.887</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.17</v>
+        <v>8.167999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.02</v>
+        <v>24.017</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.99</v>
+        <v>19.994</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.375999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.39</v>
+        <v>34.392</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.19</v>
+        <v>13.186</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.01</v>
+        <v>6.014</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.019</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.75</v>
+        <v>9.747</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.47</v>
+        <v>10.474</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.14</v>
+        <v>3.143</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.48</v>
+        <v>8.476000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.35</v>
+        <v>12.353</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>7.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.601</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>124.08</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.87</v>
+        <v>23.867</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.82</v>
+        <v>7.815</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.36</v>
+        <v>16.359</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>8.42</v>
@@ -1039,31 +1039,135 @@
         <v>1.25</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.72</v>
+        <v>16.715</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7</v>
+        <v>7.004</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.39</v>
+        <v>6.394</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>7.39</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.52</v>
+        <v>10.521</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.31</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.77</v>
+        <v>31.773</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>4.71</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.798999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44821.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>141.29</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>34.83</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.14</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_140.xlsx
+++ b/DATA_goal/Junction_Flooding_140.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,70 +967,70 @@
         <v>44821.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.887</v>
+        <v>10.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.167999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.284</v>
+        <v>0.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.017</v>
+        <v>24.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.994</v>
+        <v>19.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.375999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.392</v>
+        <v>34.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.186</v>
+        <v>13.19</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.014</v>
+        <v>6.01</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.019</v>
+        <v>9.02</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.747</v>
+        <v>9.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.474</v>
+        <v>10.47</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.143</v>
+        <v>3.14</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.476000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.353</v>
+        <v>12.35</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>7.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.106</v>
+        <v>0.11</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.601</v>
+        <v>0.6</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>124.08</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.867</v>
+        <v>23.87</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.815</v>
+        <v>7.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.359</v>
+        <v>16.36</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>8.42</v>
@@ -1039,135 +1039,31 @@
         <v>1.25</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.715</v>
+        <v>16.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.004</v>
+        <v>7</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.394</v>
+        <v>6.39</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>7.39</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.521</v>
+        <v>10.52</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.31</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.773</v>
+        <v>31.77</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>4.71</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.798999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44821.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.07</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.83</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.14</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
   </sheetData>
